--- a/Format/Messier/Messier.xlsx
+++ b/Format/Messier/Messier.xlsx
@@ -15,7 +15,7 @@
     <sheet name="梅西耶" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">梅西耶!$B$1:$D$111</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">梅西耶!$D$1:$D$111</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -2679,11 +2679,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:R111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2806,7 +2807,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2847,7 +2848,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2888,7 +2889,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2929,7 +2930,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2970,7 +2971,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3014,7 +3015,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3105,7 +3106,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3146,7 +3147,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3187,7 +3188,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3228,7 +3229,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3269,7 +3270,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3310,7 +3311,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3351,7 +3352,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3392,7 +3393,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3480,7 +3481,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3521,7 +3522,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3609,7 +3610,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3650,7 +3651,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3691,7 +3692,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3732,7 +3733,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3770,7 +3771,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3811,7 +3812,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3852,7 +3853,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3896,7 +3897,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3937,7 +3938,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3978,7 +3979,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4019,7 +4020,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4075,7 +4076,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4131,7 +4132,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4187,7 +4188,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4228,7 +4229,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4269,7 +4270,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4310,7 +4311,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4351,7 +4352,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4392,7 +4393,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4433,7 +4434,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4462,7 +4463,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4597,7 +4598,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4641,7 +4642,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4670,7 +4671,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4711,7 +4712,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4752,7 +4753,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4793,7 +4794,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4849,7 +4850,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4890,7 +4891,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4946,7 +4947,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4987,7 +4988,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5028,7 +5029,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5069,7 +5070,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5110,7 +5111,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5151,7 +5152,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5201,7 +5202,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5257,7 +5258,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5313,7 +5314,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5369,7 +5370,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5425,7 +5426,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5466,7 +5467,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5522,7 +5523,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5578,7 +5579,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5634,7 +5635,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5690,7 +5691,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5731,7 +5732,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5772,7 +5773,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5816,7 +5817,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5857,7 +5858,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5898,7 +5899,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5939,7 +5940,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5980,7 +5981,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -6036,7 +6037,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -6077,7 +6078,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -6121,7 +6122,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6224,7 +6225,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -6265,7 +6266,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6306,7 +6307,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6362,7 +6363,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6418,7 +6419,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6474,7 +6475,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6530,7 +6531,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -6586,7 +6587,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -6642,7 +6643,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -6698,7 +6699,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -6754,7 +6755,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6807,7 +6808,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6863,7 +6864,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6919,7 +6920,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6960,7 +6961,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -7001,7 +7002,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -7057,7 +7058,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -7113,7 +7114,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -7169,7 +7170,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -7213,7 +7214,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -7269,7 +7270,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -7325,7 +7326,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -7381,7 +7382,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -7437,7 +7438,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -7493,7 +7494,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -7534,7 +7535,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
@@ -7590,7 +7591,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -7646,7 +7647,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -7702,7 +7703,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -7743,7 +7744,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -7799,7 +7800,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -7855,7 +7856,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
@@ -7912,6 +7913,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="D1:D111">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Nb"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
